--- a/nomes_teste.xlsx
+++ b/nomes_teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltann\Downloads\Projeto_Integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935330C0-0A4C-4FC9-AEBB-254AA8F3BF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A26609-DAEA-4658-9D8F-9B85F14EF8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1610" yWindow="3300" windowWidth="6950" windowHeight="6900" xr2:uid="{E0C0BE46-0341-4CB7-B30B-1E97A67446E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E0C0BE46-0341-4CB7-B30B-1E97A67446E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t>nome</t>
   </si>
@@ -58,9 +58,6 @@
     <t>joão</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>João</t>
   </si>
   <si>
@@ -169,27 +166,6 @@
     <t>Jöão</t>
   </si>
   <si>
-    <t>nome com dois acentos</t>
-  </si>
-  <si>
-    <t>nome com trema</t>
-  </si>
-  <si>
-    <t>nome com underline</t>
-  </si>
-  <si>
-    <t>nome com asterisco</t>
-  </si>
-  <si>
-    <t>nome com arroba</t>
-  </si>
-  <si>
-    <t>nome com hashtag</t>
-  </si>
-  <si>
-    <t>nome com e comercial</t>
-  </si>
-  <si>
     <t>J&amp;ão</t>
   </si>
   <si>
@@ -199,21 +175,12 @@
     <t>nome minúsculo</t>
   </si>
   <si>
-    <t>nome com parênteses</t>
-  </si>
-  <si>
-    <t>nome com hífen</t>
-  </si>
-  <si>
     <t>nome com preposição</t>
   </si>
   <si>
     <t>sobrenome com preposição</t>
   </si>
   <si>
-    <t>sobrenome só com preposição</t>
-  </si>
-  <si>
     <t>das Silva</t>
   </si>
   <si>
@@ -226,19 +193,58 @@
     <t>dSilva</t>
   </si>
   <si>
-    <t>sobrenome com apostrofe</t>
-  </si>
-  <si>
-    <t>Silva Silva</t>
-  </si>
-  <si>
-    <t>Silva Silva Silva</t>
-  </si>
-  <si>
-    <t>sobrenome repetido 3x</t>
-  </si>
-  <si>
-    <t>sobrenome repetido 2x</t>
+    <t>Sobrenome Vazio</t>
+  </si>
+  <si>
+    <t>Nome vazio</t>
+  </si>
+  <si>
+    <t>Silvasilvassilvasilvasilvasilvasilvasilvasilvasilvasilvasilvassilvasilvasilvasilvasilvasilvasilvasilva</t>
+  </si>
+  <si>
+    <t>sobrenome com 80 caractéres</t>
+  </si>
+  <si>
+    <t>nome válido</t>
+  </si>
+  <si>
+    <t>nome com erro no acento</t>
+  </si>
+  <si>
+    <t>nome com caractér especial</t>
+  </si>
+  <si>
+    <t>Nome com 80 caractéres</t>
+  </si>
+  <si>
+    <t>Joaojoaojoaojoaojoaojoaojoaojoaojoaojoaojoaojoaojoaojoaojoaojoaojoaojoaojoaojoao</t>
+  </si>
+  <si>
+    <t>sobrenome - 1 letra</t>
+  </si>
+  <si>
+    <t>sobrenome - 2 letras</t>
+  </si>
+  <si>
+    <t>sobrenome - 3 letras</t>
+  </si>
+  <si>
+    <t>sobrenome - 4 letras</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Sil</t>
+  </si>
+  <si>
+    <t>Silv</t>
+  </si>
+  <si>
+    <t>Metodo</t>
   </si>
 </sst>
 </file>
@@ -320,12 +326,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13063072-B448-43FA-9A01-C7505D269ED8}" name="Tabela1" displayName="Tabela1" ref="A1:C43" totalsRowShown="0">
-  <autoFilter ref="A1:C43" xr:uid="{13063072-B448-43FA-9A01-C7505D269ED8}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13063072-B448-43FA-9A01-C7505D269ED8}" name="Tabela1" displayName="Tabela1" ref="A1:D48" totalsRowShown="0">
+  <autoFilter ref="A1:D48" xr:uid="{13063072-B448-43FA-9A01-C7505D269ED8}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DFE07BD8-4611-4FE4-A89D-513FD569651C}" name="nome"/>
     <tableColumn id="2" xr3:uid="{B1FF4520-9DDB-401E-9809-70D9EEFA882D}" name="sobrenome"/>
     <tableColumn id="3" xr3:uid="{A8574113-17DA-49D6-AFD4-F4CEA9FC1AEA}" name="teste"/>
+    <tableColumn id="4" xr3:uid="{C34D6405-CAA7-461E-9520-39670C03C9B4}" name="Metodo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15287555-9ACB-4E28-B3BE-02FBD62BFE16}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,7 +647,7 @@
     <col min="3" max="3" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,475 +655,665 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
         <v>52</v>
       </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>66</v>
+      <c r="D48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" xr:uid="{DFF4A77E-1327-468A-84CA-E7F4F7D180A3}"/>
+    <hyperlink ref="A28" r:id="rId1" xr:uid="{DFF4A77E-1327-468A-84CA-E7F4F7D180A3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
